--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -71,18 +71,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Alfabetización en datos</t>
@@ -1369,13 +1357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,40 +1421,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1475,48 +1451,36 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>322</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1525,48 +1489,36 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>322</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1575,48 +1527,36 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>322</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1625,48 +1565,36 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>322</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1675,48 +1603,36 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>322</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1725,48 +1641,36 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>322</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1775,48 +1679,36 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>322</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1825,48 +1717,36 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>322</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1875,48 +1755,36 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>322</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1925,48 +1793,36 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>322</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1975,48 +1831,36 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>322</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -2025,48 +1869,36 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>322</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -2075,48 +1907,36 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>322</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2125,48 +1945,36 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>322</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2175,48 +1983,36 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>323</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2225,48 +2021,36 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>323</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2275,48 +2059,36 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>322</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2325,48 +2097,36 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>322</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2375,48 +2135,36 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>322</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2425,48 +2173,36 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>323</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2475,48 +2211,36 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>323</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2525,48 +2249,36 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>322</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2575,48 +2287,36 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>322</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2625,48 +2325,36 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>322</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2675,48 +2363,36 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>322</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2725,48 +2401,36 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>322</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2775,48 +2439,36 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>322</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2825,48 +2477,36 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>322</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2875,48 +2515,36 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>322</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2925,48 +2553,36 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>322</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2975,48 +2591,36 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>322</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -3025,48 +2629,36 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>322</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -3075,48 +2667,36 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>322</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -3125,48 +2705,36 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>322</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -3175,48 +2743,36 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>322</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -3225,48 +2781,36 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>322</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -3275,48 +2819,36 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>322</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -3325,48 +2857,36 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>322</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -3375,48 +2895,36 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>322</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -3425,48 +2933,36 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>322</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -3475,48 +2971,36 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>322</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3525,48 +3009,36 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>322</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3575,48 +3047,36 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>322</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3625,48 +3085,36 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>322</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3675,48 +3123,36 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>322</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3725,48 +3161,36 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>322</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3775,48 +3199,36 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>322</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3825,48 +3237,36 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>322</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3875,48 +3275,36 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>322</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3925,48 +3313,36 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>322</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3975,48 +3351,36 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>322</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -4025,48 +3389,36 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>322</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -4075,48 +3427,36 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>322</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -4125,48 +3465,36 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>322</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -4175,48 +3503,36 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>322</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -4225,48 +3541,36 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>322</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -4275,48 +3579,36 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>323</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -4325,48 +3617,36 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>323</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -4375,48 +3655,36 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>323</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -4425,48 +3693,36 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>323</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -4475,48 +3731,36 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>323</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -4525,48 +3769,36 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>323</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -4575,48 +3807,36 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>323</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -4625,48 +3845,36 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>323</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -4675,48 +3883,36 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>323</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -4725,48 +3921,36 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>323</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -4775,48 +3959,36 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>322</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4825,48 +3997,36 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>322</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4875,48 +4035,36 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>322</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4925,48 +4073,36 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>322</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4975,48 +4111,36 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>322</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -5025,48 +4149,36 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>322</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -5075,48 +4187,36 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>322</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -5125,48 +4225,36 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>322</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -5175,48 +4263,36 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>322</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K77">
         <v>71</v>
@@ -5225,48 +4301,36 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>322</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K78">
         <v>71</v>
@@ -5275,48 +4339,36 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>322</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K79">
         <v>71</v>
@@ -5325,48 +4377,36 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>322</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K80">
         <v>71</v>
@@ -5375,48 +4415,36 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>322</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K81">
         <v>71</v>
@@ -5425,48 +4453,36 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>322</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K82">
         <v>71</v>
@@ -5475,48 +4491,36 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>322</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K83">
         <v>71</v>
@@ -5525,25 +4529,13 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>322</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Alfabetización en datos</t>
@@ -1357,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,28 +1424,31 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1451,36 +1457,39 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1489,36 +1498,39 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1527,36 +1539,39 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1565,36 +1580,39 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1603,36 +1621,39 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1641,36 +1662,39 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1679,36 +1703,39 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1717,36 +1744,39 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1755,36 +1785,39 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1793,36 +1826,39 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1831,36 +1867,39 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1869,36 +1908,39 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1907,36 +1949,39 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1945,36 +1990,39 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>319</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1983,36 +2031,39 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2021,36 +2072,39 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2059,36 +2113,39 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2097,36 +2154,39 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2135,36 +2195,39 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2173,36 +2236,39 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2211,36 +2277,39 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2249,36 +2318,39 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2287,36 +2359,39 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2325,36 +2400,39 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2363,36 +2441,39 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2401,36 +2482,39 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2439,36 +2523,39 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2477,36 +2564,39 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2515,36 +2605,39 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2553,36 +2646,39 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2591,36 +2687,39 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2629,36 +2728,39 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2667,36 +2769,39 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -2705,36 +2810,39 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -2743,36 +2851,39 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -2781,36 +2892,39 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -2819,36 +2933,39 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -2857,36 +2974,39 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -2895,36 +3015,39 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -2933,36 +3056,39 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -2971,36 +3097,39 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3009,36 +3138,39 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3047,36 +3179,39 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3085,36 +3220,39 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3123,36 +3261,39 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3161,36 +3302,39 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3199,36 +3343,39 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3237,36 +3384,39 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3275,36 +3425,39 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3313,36 +3466,39 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3351,36 +3507,39 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3389,36 +3548,39 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3427,36 +3589,39 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3465,36 +3630,39 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3503,36 +3671,39 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -3541,36 +3712,39 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -3579,36 +3753,39 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -3617,36 +3794,39 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -3655,36 +3835,39 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -3693,36 +3876,39 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -3731,36 +3917,39 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -3769,36 +3958,39 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -3807,36 +3999,39 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -3845,36 +4040,39 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -3883,36 +4081,39 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -3921,36 +4122,39 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -3959,36 +4163,39 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -3997,36 +4204,39 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4035,36 +4245,39 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4073,36 +4286,39 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4111,36 +4327,39 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4149,36 +4368,39 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4187,36 +4409,39 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4225,36 +4450,39 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4263,36 +4491,39 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K77">
         <v>71</v>
@@ -4301,36 +4532,39 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K78">
         <v>71</v>
@@ -4339,36 +4573,39 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K79">
         <v>71</v>
@@ -4377,36 +4614,39 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K80">
         <v>71</v>
@@ -4415,36 +4655,39 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K81">
         <v>71</v>
@@ -4453,36 +4696,39 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K82">
         <v>71</v>
@@ -4491,36 +4737,39 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K83">
         <v>71</v>
@@ -4529,13 +4778,16 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1360,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,28 +1430,31 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1457,39 +1463,42 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1498,39 +1507,42 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1539,39 +1551,42 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1580,39 +1595,42 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1621,39 +1639,42 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1662,39 +1683,42 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1703,39 +1727,42 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1744,39 +1771,42 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1785,39 +1815,42 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1826,39 +1859,42 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1867,39 +1903,42 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1908,39 +1947,42 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1949,39 +1991,42 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1990,39 +2035,42 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2031,39 +2079,42 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2072,39 +2123,42 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2113,39 +2167,42 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2154,39 +2211,42 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2195,39 +2255,42 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2236,39 +2299,42 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2277,39 +2343,42 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2318,39 +2387,42 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2359,39 +2431,42 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2400,39 +2475,42 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2441,39 +2519,42 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2482,39 +2563,42 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2523,39 +2607,42 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2564,39 +2651,42 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2605,39 +2695,42 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2646,39 +2739,42 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2687,39 +2783,42 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2728,39 +2827,42 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2769,39 +2871,42 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -2810,39 +2915,42 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -2851,39 +2959,42 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -2892,39 +3003,42 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -2933,39 +3047,42 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -2974,39 +3091,42 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -3015,39 +3135,42 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -3056,39 +3179,42 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -3097,39 +3223,42 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3138,39 +3267,42 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3179,39 +3311,42 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3220,39 +3355,42 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3261,39 +3399,42 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3302,39 +3443,42 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3343,39 +3487,42 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3384,39 +3531,42 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3425,39 +3575,42 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3466,39 +3619,42 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3507,39 +3663,42 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3548,39 +3707,42 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3589,39 +3751,42 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3630,39 +3795,42 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3671,39 +3839,42 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -3712,39 +3883,42 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -3753,39 +3927,42 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -3794,39 +3971,42 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -3835,39 +4015,42 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -3876,39 +4059,42 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -3917,39 +4103,42 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -3958,39 +4147,42 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -3999,39 +4191,42 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -4040,39 +4235,42 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -4081,39 +4279,42 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -4122,39 +4323,42 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -4163,39 +4367,42 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4204,39 +4411,42 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4245,39 +4455,42 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4286,39 +4499,42 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4327,39 +4543,42 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4368,39 +4587,42 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4409,39 +4631,42 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4450,39 +4675,42 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4491,39 +4719,42 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K77">
         <v>70</v>
@@ -4532,39 +4763,42 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K78">
         <v>70</v>
@@ -4573,39 +4807,42 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K79">
         <v>70</v>
@@ -4614,39 +4851,42 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K80">
         <v>70</v>
@@ -4655,39 +4895,42 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K81">
         <v>70</v>
@@ -4696,39 +4939,42 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K82">
         <v>70</v>
@@ -4737,39 +4983,42 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K83">
         <v>70</v>
@@ -4778,15 +5027,18 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="323">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1363,13 +1366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,28 +1436,31 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1463,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1477,28 +1483,31 @@
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1507,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1521,28 +1530,31 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1551,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1565,28 +1577,31 @@
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1595,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1609,28 +1624,31 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1639,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1653,28 +1671,31 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1683,13 +1704,13 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1697,28 +1718,31 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1727,13 +1751,13 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1741,28 +1765,31 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1771,13 +1798,13 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1785,28 +1812,31 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1815,13 +1845,13 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1829,28 +1859,31 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1859,13 +1892,13 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1873,28 +1906,31 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1903,13 +1939,13 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1917,28 +1953,31 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1947,13 +1986,13 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1961,28 +2000,31 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1991,13 +2033,13 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2005,28 +2047,31 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2035,13 +2080,13 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2049,28 +2094,31 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2079,13 +2127,13 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2093,28 +2141,31 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2123,13 +2174,13 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2137,28 +2188,31 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2167,13 +2221,13 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2181,28 +2235,31 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2211,13 +2268,13 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2225,28 +2282,31 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2255,13 +2315,13 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2269,28 +2329,31 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2299,13 +2362,13 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2313,28 +2376,31 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2343,13 +2409,13 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2357,28 +2423,31 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2387,13 +2456,13 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2401,28 +2470,31 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2431,13 +2503,13 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2445,28 +2517,31 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2475,13 +2550,13 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2489,28 +2564,31 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2519,13 +2597,13 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2533,28 +2611,31 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2563,13 +2644,13 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2577,28 +2658,31 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2607,13 +2691,13 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2621,28 +2705,31 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2651,13 +2738,13 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2665,28 +2752,31 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2695,13 +2785,13 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2709,28 +2799,31 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2739,13 +2832,13 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2753,28 +2846,31 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2783,13 +2879,13 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2797,28 +2893,31 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2827,13 +2926,13 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2841,28 +2940,31 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2871,13 +2973,13 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -2885,28 +2987,31 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -2915,13 +3020,13 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2929,28 +3034,31 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -2959,13 +3067,13 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2973,28 +3081,31 @@
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -3003,13 +3114,13 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3017,28 +3128,31 @@
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -3047,13 +3161,13 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3061,28 +3175,31 @@
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -3091,13 +3208,13 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3105,28 +3222,31 @@
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -3135,13 +3255,13 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -3149,28 +3269,31 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -3179,13 +3302,13 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3193,28 +3316,31 @@
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -3223,13 +3349,13 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3237,28 +3363,31 @@
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3267,13 +3396,13 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -3281,28 +3410,31 @@
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3311,13 +3443,13 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3325,28 +3457,31 @@
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3355,13 +3490,13 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3369,28 +3504,31 @@
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3399,13 +3537,13 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -3413,28 +3551,31 @@
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3443,13 +3584,13 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3457,28 +3598,31 @@
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3487,13 +3631,13 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3501,28 +3645,31 @@
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3531,13 +3678,13 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -3545,28 +3692,31 @@
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3575,13 +3725,13 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -3589,28 +3739,31 @@
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3619,13 +3772,13 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -3633,28 +3786,31 @@
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3663,13 +3819,13 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -3677,28 +3833,31 @@
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3707,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -3721,28 +3880,31 @@
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3751,13 +3913,13 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -3765,28 +3927,31 @@
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3795,13 +3960,13 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -3809,28 +3974,31 @@
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3839,13 +4007,13 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -3853,28 +4021,31 @@
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -3883,13 +4054,13 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -3897,28 +4068,31 @@
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -3927,13 +4101,13 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -3941,28 +4115,31 @@
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -3971,13 +4148,13 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -3985,28 +4162,31 @@
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -4015,13 +4195,13 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -4029,28 +4209,31 @@
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -4059,13 +4242,13 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -4073,28 +4256,31 @@
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -4103,13 +4289,13 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -4117,28 +4303,31 @@
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -4147,13 +4336,13 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -4161,28 +4350,31 @@
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -4191,13 +4383,13 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -4205,28 +4397,31 @@
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -4235,13 +4430,13 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -4249,28 +4444,31 @@
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -4279,13 +4477,13 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -4293,28 +4491,31 @@
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -4323,13 +4524,13 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -4337,28 +4538,31 @@
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -4367,13 +4571,13 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -4381,28 +4585,31 @@
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4411,13 +4618,13 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -4425,28 +4632,31 @@
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4455,13 +4665,13 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -4469,28 +4679,31 @@
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4499,13 +4712,13 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -4513,28 +4726,31 @@
       <c r="U71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4543,13 +4759,13 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -4557,28 +4773,31 @@
       <c r="U72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4587,13 +4806,13 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -4601,28 +4820,31 @@
       <c r="U73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4631,13 +4853,13 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T74">
         <v>0</v>
@@ -4645,28 +4867,31 @@
       <c r="U74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4675,13 +4900,13 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -4689,28 +4914,31 @@
       <c r="U75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4719,13 +4947,13 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -4733,28 +4961,31 @@
       <c r="U76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K77">
         <v>70</v>
@@ -4763,13 +4994,13 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -4777,28 +5008,31 @@
       <c r="U77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K78">
         <v>70</v>
@@ -4807,13 +5041,13 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -4821,28 +5055,31 @@
       <c r="U78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K79">
         <v>70</v>
@@ -4851,13 +5088,13 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -4865,28 +5102,31 @@
       <c r="U79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K80">
         <v>70</v>
@@ -4895,13 +5135,13 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -4909,28 +5149,31 @@
       <c r="U80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K81">
         <v>70</v>
@@ -4939,13 +5182,13 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -4953,28 +5196,31 @@
       <c r="U81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K82">
         <v>70</v>
@@ -4983,13 +5229,13 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -4997,28 +5243,31 @@
       <c r="U82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K83">
         <v>70</v>
@@ -5027,18 +5276,21 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
       <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1366,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,34 +1427,28 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1469,45 +1457,39 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1516,45 +1498,39 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1563,45 +1539,39 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1610,45 +1580,39 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1657,45 +1621,39 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1704,45 +1662,39 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1751,45 +1703,39 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1798,45 +1744,39 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1845,45 +1785,39 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1892,45 +1826,39 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1939,45 +1867,39 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1986,45 +1908,39 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -2033,45 +1949,39 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2080,45 +1990,39 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2127,45 +2031,39 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2174,45 +2072,39 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2221,45 +2113,39 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2268,45 +2154,39 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2315,45 +2195,39 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2362,45 +2236,39 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2409,45 +2277,39 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2456,45 +2318,39 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2503,45 +2359,39 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2550,45 +2400,39 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2597,45 +2441,39 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2644,45 +2482,39 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2691,45 +2523,39 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2738,45 +2564,39 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2785,45 +2605,39 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2832,45 +2646,39 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2879,45 +2687,39 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2926,45 +2728,39 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2973,45 +2769,39 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -3020,45 +2810,39 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -3067,45 +2851,39 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -3114,45 +2892,39 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -3161,45 +2933,39 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -3208,45 +2974,39 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -3255,45 +3015,39 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -3302,45 +3056,39 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -3349,45 +3097,39 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3396,45 +3138,39 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3443,45 +3179,39 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3490,45 +3220,39 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3537,45 +3261,39 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3584,45 +3302,39 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3631,45 +3343,39 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3678,45 +3384,39 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3725,45 +3425,39 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3772,45 +3466,39 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3819,45 +3507,39 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3866,45 +3548,39 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3913,45 +3589,39 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3960,45 +3630,39 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -4007,45 +3671,39 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -4054,45 +3712,39 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -4101,45 +3753,39 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -4148,45 +3794,39 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -4195,45 +3835,39 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -4242,45 +3876,39 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -4289,45 +3917,39 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -4336,45 +3958,39 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -4383,45 +3999,39 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -4430,45 +4040,39 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -4477,45 +4081,39 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -4524,45 +4122,39 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -4571,45 +4163,39 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4618,45 +4204,39 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4665,45 +4245,39 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4712,45 +4286,39 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4759,45 +4327,39 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4806,45 +4368,39 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4853,45 +4409,39 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4900,45 +4450,39 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4947,45 +4491,39 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K77">
         <v>70</v>
@@ -4994,45 +4532,39 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K78">
         <v>70</v>
@@ -5041,45 +4573,39 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K79">
         <v>70</v>
@@ -5088,45 +4614,39 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K80">
         <v>70</v>
@@ -5135,45 +4655,39 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K81">
         <v>70</v>
@@ -5182,45 +4696,39 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K82">
         <v>70</v>
@@ -5229,45 +4737,39 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K83">
         <v>70</v>
@@ -5276,21 +4778,15 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>nota_iniciativa</t>
+  </si>
+  <si>
+    <t>p24_3</t>
   </si>
   <si>
     <t>Alfabetización en datos</t>
@@ -1360,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,28 +1430,31 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1457,39 +1463,36 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1498,39 +1501,36 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>319</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1539,39 +1539,36 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>319</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1580,39 +1577,36 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>319</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1621,39 +1615,36 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>319</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1662,39 +1653,36 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>319</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1703,39 +1691,36 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>319</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1744,39 +1729,36 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>319</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1785,39 +1767,36 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>319</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1826,39 +1805,36 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>319</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1867,39 +1843,36 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>319</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1908,39 +1881,36 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>319</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1949,39 +1919,36 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>319</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1990,39 +1957,36 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>319</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2031,39 +1995,36 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2072,39 +2033,36 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>320</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2113,39 +2071,36 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>319</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2154,39 +2109,36 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>319</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2195,39 +2147,36 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>319</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2236,39 +2185,36 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>320</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2277,39 +2223,36 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>320</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2318,39 +2261,36 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>319</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2359,39 +2299,36 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>319</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2400,39 +2337,36 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>319</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2441,39 +2375,36 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>319</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2482,39 +2413,36 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>319</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2523,39 +2451,36 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>319</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2564,39 +2489,36 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>319</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2605,39 +2527,36 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>319</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2646,39 +2565,36 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>319</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2687,39 +2603,36 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>319</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2728,39 +2641,36 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>319</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2769,39 +2679,36 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>319</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -2810,39 +2717,36 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>319</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -2851,39 +2755,36 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>319</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -2892,39 +2793,36 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>319</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -2933,39 +2831,36 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>319</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -2974,39 +2869,36 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>319</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -3015,39 +2907,36 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>319</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -3056,39 +2945,36 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>319</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -3097,39 +2983,36 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>319</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3138,39 +3021,36 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>319</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3179,39 +3059,36 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>319</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3220,39 +3097,36 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>319</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3261,39 +3135,36 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>319</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3302,39 +3173,36 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>319</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3343,39 +3211,36 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>319</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3384,39 +3249,36 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>319</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3425,39 +3287,36 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>319</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3466,39 +3325,36 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>319</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3507,39 +3363,42 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>1.5</v>
+      </c>
+      <c r="U52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3548,39 +3407,36 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>319</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3589,39 +3445,36 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>319</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3630,39 +3483,36 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>319</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3671,39 +3521,36 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>319</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -3712,39 +3559,36 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>319</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -3753,39 +3597,36 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>320</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -3794,39 +3635,36 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>320</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -3835,39 +3673,36 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>320</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -3876,39 +3711,36 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>320</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -3917,39 +3749,36 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>320</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -3958,39 +3787,36 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>320</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -3999,39 +3825,36 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>320</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -4040,39 +3863,36 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>320</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -4081,39 +3901,36 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>320</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -4122,39 +3939,36 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>320</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -4163,39 +3977,36 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>319</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4204,39 +4015,36 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>319</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4245,39 +4053,36 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>319</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4286,39 +4091,36 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>319</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4327,39 +4129,36 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>319</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4368,39 +4167,36 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>319</v>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4409,39 +4205,36 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>319</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4450,39 +4243,36 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>319</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4491,39 +4281,36 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>319</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K77">
         <v>70</v>
@@ -4532,39 +4319,36 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>319</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K78">
         <v>70</v>
@@ -4573,39 +4357,36 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>319</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K79">
         <v>70</v>
@@ -4614,39 +4395,36 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>319</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K80">
         <v>70</v>
@@ -4655,39 +4433,36 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>319</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K81">
         <v>70</v>
@@ -4696,39 +4471,36 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>319</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K82">
         <v>70</v>
@@ -4737,39 +4509,36 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>319</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K83">
         <v>70</v>
@@ -4778,16 +4547,13 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>319</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_3.xlsx
+++ b/files/separadas/repeat_p24_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="321">
   <si>
     <t>p24_3_nom</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>nota_iniciativa</t>
-  </si>
-  <si>
-    <t>p24_3</t>
   </si>
   <si>
     <t>Alfabetización en datos</t>
@@ -1363,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,31 +1427,28 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1463,36 +1457,39 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N2" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1501,36 +1498,39 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1539,36 +1539,39 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1577,36 +1580,39 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1615,36 +1621,39 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Q6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1653,36 +1662,39 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N7" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1691,36 +1703,39 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1729,36 +1744,39 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K10">
         <v>11</v>
@@ -1767,36 +1785,39 @@
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1805,36 +1826,39 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1843,36 +1867,39 @@
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -1881,36 +1908,39 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1919,36 +1949,39 @@
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1957,36 +1990,39 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Q15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1995,36 +2031,39 @@
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N16" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>9621</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -2033,36 +2072,39 @@
         <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N17" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Q17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18">
         <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18">
         <v>18</v>
@@ -2071,36 +2113,39 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N18" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Q18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19">
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>21</v>
@@ -2109,36 +2154,39 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2147,36 +2195,39 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N20" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Q20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -2185,36 +2236,39 @@
         <v>51</v>
       </c>
       <c r="M21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N21" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K22">
         <v>24</v>
@@ -2223,36 +2277,39 @@
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N22" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Q22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K23">
         <v>27</v>
@@ -2261,36 +2318,39 @@
         <v>56</v>
       </c>
       <c r="M23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N23" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Q23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K24">
         <v>28</v>
@@ -2299,36 +2359,39 @@
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N24" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K25">
         <v>28</v>
@@ -2337,36 +2400,39 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N25" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -2375,36 +2441,39 @@
         <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N26" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Q26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27">
         <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K27">
         <v>30</v>
@@ -2413,36 +2482,39 @@
         <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N27" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K28">
         <v>30</v>
@@ -2451,36 +2523,39 @@
         <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -2489,36 +2564,39 @@
         <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Q29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K30">
         <v>31</v>
@@ -2527,36 +2605,39 @@
         <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N30" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K31">
         <v>31</v>
@@ -2565,36 +2646,39 @@
         <v>60</v>
       </c>
       <c r="M31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N31" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K32">
         <v>31</v>
@@ -2603,36 +2687,39 @@
         <v>60</v>
       </c>
       <c r="M32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Q32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33">
         <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -2641,36 +2728,39 @@
         <v>61</v>
       </c>
       <c r="M33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N33" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34">
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -2679,36 +2769,39 @@
         <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35">
         <v>623</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K35">
         <v>32</v>
@@ -2717,36 +2810,39 @@
         <v>61</v>
       </c>
       <c r="M35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36">
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -2755,36 +2851,39 @@
         <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N36" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K37">
         <v>32</v>
@@ -2793,36 +2892,39 @@
         <v>61</v>
       </c>
       <c r="M37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K38">
         <v>32</v>
@@ -2831,36 +2933,39 @@
         <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39">
         <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -2869,36 +2974,39 @@
         <v>61</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q39" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -2907,36 +3015,39 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41">
         <v>399</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -2945,36 +3056,39 @@
         <v>61</v>
       </c>
       <c r="M41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42">
         <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K42">
         <v>32</v>
@@ -2983,36 +3097,39 @@
         <v>61</v>
       </c>
       <c r="M42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q42" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K43">
         <v>32</v>
@@ -3021,36 +3138,39 @@
         <v>61</v>
       </c>
       <c r="M43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D44">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -3059,36 +3179,39 @@
         <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3097,36 +3220,39 @@
         <v>61</v>
       </c>
       <c r="M45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Q45" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K46">
         <v>35</v>
@@ -3135,36 +3261,39 @@
         <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N46" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K47">
         <v>35</v>
@@ -3173,36 +3302,39 @@
         <v>75</v>
       </c>
       <c r="M47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K48">
         <v>35</v>
@@ -3211,36 +3343,39 @@
         <v>75</v>
       </c>
       <c r="M48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q48" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K49">
         <v>35</v>
@@ -3249,36 +3384,39 @@
         <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N49" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D50">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K50">
         <v>35</v>
@@ -3287,36 +3425,39 @@
         <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N50" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="Q50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D51">
         <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K51">
         <v>36</v>
@@ -3325,36 +3466,39 @@
         <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N51" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K52">
         <v>36</v>
@@ -3363,42 +3507,39 @@
         <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N52" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T52">
-        <v>1.5</v>
-      </c>
-      <c r="U52">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K53">
         <v>36</v>
@@ -3407,36 +3548,39 @@
         <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Q53" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I54">
         <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K54">
         <v>39</v>
@@ -3445,36 +3589,39 @@
         <v>81</v>
       </c>
       <c r="M54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55">
         <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I55">
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K55">
         <v>39</v>
@@ -3483,36 +3630,39 @@
         <v>81</v>
       </c>
       <c r="M55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Q55" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I56">
         <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K56">
         <v>44</v>
@@ -3521,36 +3671,39 @@
         <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N56" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q56" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I57">
         <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -3559,36 +3712,39 @@
         <v>87</v>
       </c>
       <c r="M57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N57" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Q57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>319</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I58">
         <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K58">
         <v>45</v>
@@ -3597,36 +3753,39 @@
         <v>88</v>
       </c>
       <c r="M58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N58" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q58" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I59">
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K59">
         <v>45</v>
@@ -3635,36 +3794,39 @@
         <v>88</v>
       </c>
       <c r="M59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N59" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q59" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I60">
         <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K60">
         <v>45</v>
@@ -3673,36 +3835,39 @@
         <v>88</v>
       </c>
       <c r="M60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N60" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K61">
         <v>45</v>
@@ -3711,36 +3876,39 @@
         <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N61" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q61" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I62">
         <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K62">
         <v>45</v>
@@ -3749,36 +3917,39 @@
         <v>88</v>
       </c>
       <c r="M62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N62" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I63">
         <v>62</v>
       </c>
       <c r="J63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -3787,36 +3958,39 @@
         <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N63" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q63" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>320</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I64">
         <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K64">
         <v>45</v>
@@ -3825,36 +3999,39 @@
         <v>88</v>
       </c>
       <c r="M64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N64" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q64" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I65">
         <v>64</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K65">
         <v>45</v>
@@ -3863,36 +4040,39 @@
         <v>88</v>
       </c>
       <c r="M65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K66">
         <v>45</v>
@@ -3901,36 +4081,39 @@
         <v>88</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q66" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I67">
         <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K67">
         <v>45</v>
@@ -3939,36 +4122,39 @@
         <v>88</v>
       </c>
       <c r="M67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N67" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Q67" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>320</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I68">
         <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K68">
         <v>47</v>
@@ -3977,36 +4163,39 @@
         <v>91</v>
       </c>
       <c r="M68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N68" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Q68" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69">
         <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I69">
         <v>68</v>
       </c>
       <c r="J69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K69">
         <v>51</v>
@@ -4015,36 +4204,39 @@
         <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Q69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I70">
         <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K70">
         <v>54</v>
@@ -4053,36 +4245,39 @@
         <v>99</v>
       </c>
       <c r="M70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N70" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q70" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I71">
         <v>70</v>
       </c>
       <c r="J71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K71">
         <v>54</v>
@@ -4091,36 +4286,39 @@
         <v>99</v>
       </c>
       <c r="M71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N71" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q71" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I72">
         <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K72">
         <v>54</v>
@@ -4129,36 +4327,39 @@
         <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N72" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Q72" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I73">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K73">
         <v>55</v>
@@ -4167,36 +4368,39 @@
         <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N73" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Q73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I74">
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K74">
         <v>56</v>
@@ -4205,36 +4409,39 @@
         <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N74" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Q74" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I75">
         <v>74</v>
       </c>
       <c r="J75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K75">
         <v>59</v>
@@ -4243,36 +4450,39 @@
         <v>104</v>
       </c>
       <c r="M75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N75" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Q75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I76">
         <v>75</v>
       </c>
       <c r="J76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K76">
         <v>61</v>
@@ -4281,36 +4491,39 @@
         <v>106</v>
       </c>
       <c r="M76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N76" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Q76" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I77">
         <v>76</v>
       </c>
       <c r="J77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K77">
         <v>70</v>
@@ -4319,36 +4532,39 @@
         <v>119</v>
       </c>
       <c r="M77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N77" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78">
         <v>2591</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I78">
         <v>77</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K78">
         <v>70</v>
@@ -4357,36 +4573,39 @@
         <v>119</v>
       </c>
       <c r="M78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79">
         <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I79">
         <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K79">
         <v>70</v>
@@ -4395,36 +4614,39 @@
         <v>119</v>
       </c>
       <c r="M79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N79" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q79" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80">
         <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I80">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K80">
         <v>70</v>
@@ -4433,36 +4655,39 @@
         <v>119</v>
       </c>
       <c r="M80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N80" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K81">
         <v>70</v>
@@ -4471,36 +4696,39 @@
         <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N81" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I82">
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K82">
         <v>70</v>
@@ -4509,36 +4737,39 @@
         <v>119</v>
       </c>
       <c r="M82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N82" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q82" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>319</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D83">
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I83">
         <v>82</v>
       </c>
       <c r="J83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K83">
         <v>70</v>
@@ -4547,13 +4778,16 @@
         <v>119</v>
       </c>
       <c r="M83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N83" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Q83" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
